--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842380.4576395487</v>
+        <v>843164.6035775774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4962848.640114339</v>
+        <v>4962848.64011434</v>
       </c>
     </row>
     <row r="11">
@@ -659,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.211010870930398</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.336946277399546</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>36.6156848048709</v>
       </c>
     </row>
     <row r="4">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136.9590004198107</v>
+        <v>108.0109996132921</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -993,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.967398110280146</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>13.74034240511227</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1278,7 +1280,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>125.2000597604661</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>48.32160706581265</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>205.5178444382804</v>
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.01596068304845</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.92816756005752</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>128.7503202017071</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,16 +1979,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.0249214997824</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>150.4149128677507</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>99.22041616487689</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>182.7004482653351</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>31.59085779163134</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>190.0939048321462</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>115.6677505121453</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.070819998298245</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3114,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>103.7035670991123</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50.72093801962709</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.37254956828075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3579,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>98.09531059045651</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>45.7693770721695</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>171.0294181666926</v>
-      </c>
-      <c r="E41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3819,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>13.66473413638039</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>14.69006202085835</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>205.5178444382804</v>
@@ -4028,7 +4030,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>14.3780636550197</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>46.54968785507681</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>610.6328082650543</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>461.6983986038031</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4419,40 +4421,40 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>812.6401188870615</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>785.0858375461813</v>
       </c>
     </row>
     <row r="4">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.5413885648676</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="C6" t="n">
-        <v>268.5413885648676</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="D6" t="n">
-        <v>268.5413885648676</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="E6" t="n">
-        <v>268.5413885648676</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4677,19 +4679,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="X6" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>159.1797258111137</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.44890039372925</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>808.192244010584</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>600.5984617496947</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X9" t="n">
-        <v>393.0046794888054</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.4108972279162</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5081,7 +5083,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
         <v>614.4775954922324</v>
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.2511316619439</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="C12" t="n">
-        <v>65.2511316619439</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="D12" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
         <v>16.44142755506243</v>
@@ -5121,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>415.1460457653264</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X12" t="n">
-        <v>441.0602509429012</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y12" t="n">
-        <v>233.4664686820119</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,46 +5284,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>396.792197863116</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>455.2401404867769</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>308.7055825136619</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>169.9747570962774</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>56.60562150385668</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>782.7499963793261</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>782.7499963793261</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>372.969619477203</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>372.969619477203</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>372.969619477203</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>165.3758372163137</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5455,31 +5457,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>492.48569440222</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>492.48569440222</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>492.48569440222</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>492.48569440222</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X18" t="n">
-        <v>660.701031422288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>660.701031422288</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5707,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
         <v>262.7299197543128</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5946,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6069,43 +6071,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
         <v>227.0414418751666</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6259,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>168.215552771464</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.215552771464</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>353.7257600495809</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>957.9250140982138</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>957.9250140982138</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>957.9250140982138</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>729.7013958346029</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>729.7013958346029</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>729.7013958346029</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X30" t="n">
-        <v>729.7013958346029</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.941097069649</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="31">
@@ -6643,13 +6645,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6728,19 +6730,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
         <v>19.28114311021272</v>
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>124.032220988104</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>124.032220988104</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>526.7184526376595</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2696759935595</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>283.2696759935595</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.8157010833278</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8157010833278</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>355.7797972276083</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>209.2452392544933</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>70.51441383710878</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7023,7 +7025,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
         <v>712.019119383956</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>391.2152311558108</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X36" t="n">
-        <v>183.363730950278</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y36" t="n">
-        <v>165.8157010833278</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>277.6047704292607</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C39" t="n">
-        <v>277.6047704292607</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>277.6047704292607</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="40">
@@ -7354,19 +7356,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7418,10 +7420,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7444,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>30.24418930898202</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>412.2910008509983</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>412.2910008509983</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>412.2910008509983</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X42" t="n">
-        <v>412.2910008509983</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7652,7 +7654,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7676,22 +7678,22 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.8907214957869</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
-        <v>325.3674248745549</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>176.4330152133036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
         <v>17.19556020784815</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.8907214957869</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -8067,16 +8069,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>209.1446748894994</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8784,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9021,10 +9023,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10200,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22565,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2648786994755</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22626,19 +22628,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>90.82088787524359</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>169.0670109724335</v>
       </c>
     </row>
     <row r="4">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.5741832300566</v>
+        <v>58.52218403657521</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22872,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22881,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22917,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>108.2680461262163</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>219.060244744313</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23166,7 +23168,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23340,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>22.24500580417264</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>89.02191009739798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23400,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>211.7044234967879</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23549,16 +23551,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>180.7200942177732</v>
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>50.38067216836663</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>61.22966659258562</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23674,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>149.0972843361114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>16.31889219167681</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23865,16 +23867,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>18.74806370369507</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23947,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24014,7 +24016,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>22.29358612056504</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24184,13 +24186,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>374.8264583819999</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50.10013888409014</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,10 +24499,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>105.7526593715793</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>15.67908037133131</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24731,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>50.86543313772202</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.08701415434489</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25002,13 +25004,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>33.6399500640983</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,10 +25049,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25169,7 +25171,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>61.51450621686937</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.3101462090236</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>49.34975497418225</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>91.57414009104113</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,13 +25529,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6536234539904</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25682,7 +25684,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25707,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>133.7803314282584</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>190.992633756446</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>361.5735414379376</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>159.7550473327271</v>
@@ -25916,7 +25918,7 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>158.330435333296</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.60814629756632</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418108.7650296153</v>
+        <v>418108.7650296154</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440385.327153103</v>
+        <v>440385.3271531031</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440385.3271531028</v>
+        <v>440385.327153103</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418108.7650296154</v>
+        <v>418108.7650296155</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514385</v>
       </c>
       <c r="C2" t="n">
         <v>141981.8776514384</v>
@@ -26323,7 +26325,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="F2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514383</v>
       </c>
       <c r="G2" t="n">
         <v>149544.6052781992</v>
@@ -26335,7 +26337,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="J2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="K2" t="n">
         <v>149544.6052781992</v>
@@ -26347,13 +26349,13 @@
         <v>149544.6052781992</v>
       </c>
       <c r="N2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="O2" t="n">
         <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
     </row>
     <row r="3">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8092.707817725995</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8092.707817725995</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8092.707817725995</v>
+      </c>
+      <c r="E4" t="n">
         <v>8092.707817725994</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8092.707817725994</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8092.707817725994</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
         <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26445,16 +26447,16 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="P4" t="n">
         <v>8092.707817725995</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18892.32831017516</v>
+        <v>18892.32831017518</v>
       </c>
       <c r="C6" t="n">
-        <v>87766.08489186497</v>
+        <v>87766.084891865</v>
       </c>
       <c r="D6" t="n">
-        <v>87766.08489186497</v>
+        <v>87766.08489186494</v>
       </c>
       <c r="E6" t="n">
         <v>121393.684891865</v>
       </c>
       <c r="F6" t="n">
-        <v>121393.684891865</v>
+        <v>121393.6848918649</v>
       </c>
       <c r="G6" t="n">
         <v>116614.782470928</v>
@@ -26543,7 +26545,7 @@
         <v>126343.8254450951</v>
       </c>
       <c r="J6" t="n">
-        <v>72571.31455488566</v>
+        <v>72571.31455488563</v>
       </c>
       <c r="K6" t="n">
         <v>126343.8254450951</v>
@@ -26555,10 +26557,10 @@
         <v>126343.8254450951</v>
       </c>
       <c r="N6" t="n">
-        <v>126343.8254450951</v>
+        <v>126343.825445095</v>
       </c>
       <c r="O6" t="n">
-        <v>121393.6848918649</v>
+        <v>121393.684891865</v>
       </c>
       <c r="P6" t="n">
         <v>121393.684891865</v>
@@ -34787,16 +34789,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35504,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,19 +35652,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35741,10 +35743,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,10 +38022,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>843164.6035775774</v>
+        <v>738932.105314134</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.6156848048709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108.0109996132921</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C8" t="n">
         <v>205.5178444382804</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.967398110280146</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>119.6102769929014</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>125.2000597604661</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.92816756005752</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>205.5178444382804</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>31.70223305048739</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1982,13 +1982,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.0249214997824</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,58 +2089,58 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>62.4162677022923</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>62.11690385378651</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>116.3751148309236</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>99.22041616487689</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,58 +2475,58 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,31 +2633,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>106.9661462294225</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>31.59085779163134</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,67 +2715,67 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.6677505121453</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>97.76646051984098</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H35" t="n">
         <v>241.0142888776591</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3362,10 +3362,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>50.72093801962709</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>137.3051964174071</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3438,55 +3438,55 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3596,10 +3596,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>45.7693770721695</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>106.2424318239887</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,55 +3748,55 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>116.6330144206977</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T44" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,10 +4061,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>46.54968785507681</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.2418220378557</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81546818692397</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>785.0858375461813</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>610.6328082650543</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>461.6983986038031</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>302.4609435983476</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4415,13 +4415,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4439,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>785.0858375461813</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4579,40 +4579,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4655,7 +4655,7 @@
         <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N6" t="n">
         <v>423.3667595428576</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>614.4775954922324</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4755,22 +4755,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4807,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>159.1797258111137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>20.44890039372925</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
         <v>16.44142755506243</v>
@@ -4889,7 +4889,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
         <v>232.5025681519757</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>305.7142837842288</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5001,13 +5001,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.9061343838161</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C12" t="n">
-        <v>142.9061343838161</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5123,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X12" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y12" t="n">
-        <v>311.1214714038841</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5238,13 +5238,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5284,46 +5284,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
         <v>16.44142755506243</v>
@@ -5360,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>782.7499963793261</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>782.7499963793261</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>580.5634017380922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>580.5634017380922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>372.969619477203</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>372.969619477203</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X15" t="n">
-        <v>372.969619477203</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y15" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5560,7 +5560,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>298.4948343740486</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W18" t="n">
-        <v>298.4948343740486</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="19">
@@ -5709,13 +5709,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>673.0891899199682</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>437.9370816882255</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5952,10 +5952,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6013,19 +6013,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
         <v>506.1786963984129</v>
@@ -6034,7 +6034,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>690.4171683705204</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>462.1935501069094</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>227.0414418751666</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.4946457291688</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="C27" t="n">
-        <v>313.4946457291688</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D27" t="n">
-        <v>164.5602360679176</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E27" t="n">
-        <v>164.5602360679176</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F27" t="n">
-        <v>164.5602360679176</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>582.7883107557723</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6645,13 +6645,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="X32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="Y32" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,13 +6785,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>865.3031549855443</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>663.1165603443104</v>
       </c>
       <c r="U33" t="n">
-        <v>914.2479596093278</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6882,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G35" t="n">
         <v>262.7299197543128</v>
@@ -6967,22 +6967,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.4702815141908</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="C36" t="n">
-        <v>515.0172522330638</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D36" t="n">
-        <v>515.0172522330638</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E36" t="n">
-        <v>355.7797972276083</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>209.2452392544933</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>70.51441383710878</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>825.3650379172957</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>825.3650379172957</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>825.3650379172957</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>825.3650379172957</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>825.3650379172957</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>825.3650379172957</v>
       </c>
       <c r="Y36" t="n">
-        <v>689.4702815141908</v>
+        <v>825.3650379172957</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.0360370837871</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C38" t="n">
-        <v>30.58726043968704</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>694.6722890434539</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="C39" t="n">
-        <v>520.2192597623269</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D39" t="n">
-        <v>371.2848501010757</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E39" t="n">
-        <v>212.0473950956202</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F39" t="n">
-        <v>65.51283712250515</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>755.5720383625232</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>755.5720383625232</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>755.5720383625232</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>755.5720383625232</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>755.5720383625232</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>755.5720383625232</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7414,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7496,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>31.27987404077794</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>31.27987404077794</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7654,13 +7654,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>775.0514910308218</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>775.0514910308218</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>775.0514910308218</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="U45" t="n">
-        <v>567.4577087699325</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="V45" t="n">
-        <v>567.4577087699325</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="W45" t="n">
-        <v>567.4577087699325</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="X45" t="n">
-        <v>567.4577087699325</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.8639265090432</v>
+        <v>667.2816585229643</v>
       </c>
     </row>
     <row r="46">
@@ -7833,16 +7833,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,7 +8072,7 @@
         <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,10 +8303,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>290.7443071551351</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9500,7 +9500,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,7 +9731,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,16 +10433,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11311,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,19 +22628,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>169.0670109724335</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.52218403657521</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,16 +22922,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>124.8204125487101</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>211.704423496788</v>
       </c>
       <c r="C8" t="n">
         <v>159.7550473327271</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23080,7 +23080,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23111,13 +23111,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>108.2680461262163</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>46.92290665696591</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22.24500580417264</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.22966659258562</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,10 +23636,10 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1648513390239543</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>141.0062659378283</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>18.74806370369507</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23977,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24025,10 +24025,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>188.9293852055442</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>109.5662672500513</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,10 +24253,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24268,13 +24268,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>41.26996562447739</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>100.9443125299447</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,31 +24521,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>65.74235275889325</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.7526593715793</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24733,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50.86543313772202</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24812,13 +24812,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,19 +25046,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>73.91671058399685</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H35" t="n">
         <v>98.46051323810809</v>
@@ -25207,19 +25207,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>125.4575720412377</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>61.51450621686937</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>34.37797468643072</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891957</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>91.57414009104113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>93.92229687083294</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9009519055692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>70.32553552659905</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25709,16 +25709,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>30.81205114394105</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.992633756446</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.60814629756632</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>46.92290665696589</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418108.7650296153</v>
+        <v>418108.7650296154</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440385.3271531031</v>
+        <v>440385.327153103</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440385.3271531031</v>
+        <v>440385.327153103</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440385.3271531031</v>
+        <v>440385.3271531028</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440385.327153103</v>
+        <v>440385.3271531031</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440385.327153103</v>
+        <v>440385.3271531031</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418108.7650296155</v>
+        <v>418108.7650296154</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418108.7650296154</v>
+        <v>418108.7650296153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="C2" t="n">
         <v>141981.8776514384</v>
       </c>
       <c r="D2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514383</v>
       </c>
       <c r="E2" t="n">
         <v>141981.8776514384</v>
       </c>
       <c r="F2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514384</v>
       </c>
       <c r="G2" t="n">
         <v>149544.6052781992</v>
@@ -26337,7 +26337,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="J2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="K2" t="n">
         <v>149544.6052781992</v>
@@ -26352,7 +26352,7 @@
         <v>149544.6052781991</v>
       </c>
       <c r="O2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514385</v>
       </c>
       <c r="P2" t="n">
         <v>141981.8776514384</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="C4" t="n">
         <v>8092.707817725995</v>
       </c>
       <c r="D4" t="n">
+        <v>8092.707817725994</v>
+      </c>
+      <c r="E4" t="n">
         <v>8092.707817725995</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
         <v>8092.707817725994</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18892.32831017518</v>
+        <v>6254.166155314619</v>
       </c>
       <c r="C6" t="n">
-        <v>87766.084891865</v>
+        <v>75127.9227370045</v>
       </c>
       <c r="D6" t="n">
-        <v>87766.08489186494</v>
+        <v>75127.92273700441</v>
       </c>
       <c r="E6" t="n">
-        <v>121393.684891865</v>
+        <v>108755.5227370045</v>
       </c>
       <c r="F6" t="n">
-        <v>121393.6848918649</v>
+        <v>108755.5227370045</v>
       </c>
       <c r="G6" t="n">
-        <v>116614.782470928</v>
+        <v>104396.7718508875</v>
       </c>
       <c r="H6" t="n">
-        <v>126343.8254450951</v>
+        <v>114125.8148250546</v>
       </c>
       <c r="I6" t="n">
-        <v>126343.8254450951</v>
+        <v>114125.8148250546</v>
       </c>
       <c r="J6" t="n">
-        <v>72571.31455488563</v>
+        <v>60353.30393484525</v>
       </c>
       <c r="K6" t="n">
-        <v>126343.8254450951</v>
+        <v>114125.8148250546</v>
       </c>
       <c r="L6" t="n">
-        <v>126343.8254450951</v>
+        <v>114125.8148250546</v>
       </c>
       <c r="M6" t="n">
-        <v>126343.8254450951</v>
+        <v>114125.8148250546</v>
       </c>
       <c r="N6" t="n">
-        <v>126343.825445095</v>
+        <v>114125.8148250546</v>
       </c>
       <c r="O6" t="n">
-        <v>121393.684891865</v>
+        <v>108755.5227370045</v>
       </c>
       <c r="P6" t="n">
-        <v>121393.684891865</v>
+        <v>108755.5227370045</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,7 +34792,7 @@
         <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>148.1480627106907</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,7 +36451,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37794,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38031,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
